--- a/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Ref002_トークテーマカテゴリ一覧取得.xlsx
+++ b/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Ref002_トークテーマカテゴリ一覧取得.xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiki/develop/eternal/documents/20.開発/60.API/20.API仕様書/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2844378A-CB2B-4DF2-BB27-C2B97F70F893}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="2"/>
+    <workbookView xWindow="45" yWindow="465" windowWidth="38400" windowHeight="21135" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -27,9 +23,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'概要(トークテーマカテゴリ一覧取得)'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">リクエスト!$A$1:$BV$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">レスポンス!$A$1:$BV$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$F$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'概要(トークテーマカテゴリ一覧取得)'!$A$1:$BV$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AZ$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$F$26</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">リクエスト!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">レスポンス!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'概要(トークテーマカテゴリ一覧取得)'!$1:$4</definedName>
@@ -43,7 +39,7 @@
     <definedName name="版" localSheetId="2">[1]変更履歴!$B$5:$B$25</definedName>
     <definedName name="版">変更履歴!$B$5:$B$25</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -56,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="85">
   <si>
     <t>Confidential</t>
     <phoneticPr fontId="6"/>
@@ -379,10 +375,6 @@
   </si>
   <si>
     <t>Ref_002</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>hiima/api/internal/v1/genre</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -564,34 +556,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ジャンルID</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>BigDecimal</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ジャンル名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>genreId</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>genreName</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>genreList</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ジャンルリスト</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -609,21 +574,84 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>List&lt;Genre&gt;</t>
+    <r>
+      <t>hiima/api/internal/v1/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>categoryList</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>柴</t>
+    <rPh sb="0" eb="1">
+      <t>シバ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>categoryList</t>
+  </si>
+  <si>
+    <t>categoryId</t>
+  </si>
+  <si>
+    <t>categoryName</t>
+  </si>
+  <si>
+    <t>List&lt;Category&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カテゴリリスト</t>
+  </si>
+  <si>
+    <t>カテゴリID</t>
+  </si>
+  <si>
+    <t>カテゴリ名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0.0.2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>概要(トークテーマカテゴリ一覧取得)
+・エンドポイント
+　genreをcategoryListに変更
+・レスポンス
+　ジャンルをカテゴリに変更</t>
+    <rPh sb="48" eb="50">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ヘンコウ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="&quot;改訂日 &quot;yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;バージョン &quot;@"/>
     <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="179" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -734,6 +762,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="メイリオ"/>
       <family val="3"/>
@@ -909,7 +944,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -931,15 +966,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -958,9 +984,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -996,42 +1019,69 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1041,81 +1091,78 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準 2 2" xfId="2"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1156,7 +1203,7 @@
         <xdr:cNvPr id="3" name="グループ化 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1164,7 +1211,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="74705" y="116731"/>
+          <a:off x="82643" y="120700"/>
           <a:ext cx="17133796" cy="579351"/>
           <a:chOff x="78440" y="633133"/>
           <a:chExt cx="16932090" cy="573749"/>
@@ -1175,7 +1222,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1240,7 +1287,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1305,7 +1352,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1370,7 +1417,7 @@
           <xdr:cNvPr id="7" name="正方形/長方形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1435,7 +1482,7 @@
           <xdr:cNvPr id="8" name="正方形/長方形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1500,7 +1547,7 @@
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1565,7 +1612,7 @@
           <xdr:cNvPr id="10" name="正方形/長方形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1637,7 +1684,7 @@
           <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1691,7 +1738,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>【eternal】API仕様書_Ref002_トークテーマジャンル一覧取得</a:t>
+              <a:t>【eternal】API仕様書_Ref002_トークテーマカテゴリ一覧取得</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -1709,7 +1756,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1763,7 +1810,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>2018年12月15日 土曜日</a:t>
+              <a:t>2018年12月15日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -1781,7 +1828,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1853,7 +1900,7 @@
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1907,7 +1954,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> </a:t>
+              <a:t>2019年1月2日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -1925,7 +1972,7 @@
           <xdr:cNvPr id="15" name="正方形/長方形 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1979,7 +2026,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> </a:t>
+              <a:t>柴</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -2018,7 +2065,7 @@
         <xdr:cNvPr id="2" name="グループ化 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4161962-57F9-41FD-BE9B-9C39ABC6F599}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4161962-57F9-41FD-BE9B-9C39ABC6F599}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2026,7 +2073,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="74705" y="116731"/>
+          <a:off x="82643" y="120700"/>
           <a:ext cx="17133796" cy="579351"/>
           <a:chOff x="78440" y="633133"/>
           <a:chExt cx="16932090" cy="573749"/>
@@ -2037,7 +2084,7 @@
           <xdr:cNvPr id="3" name="正方形/長方形 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A8E14589-EE4C-491D-89A4-EB22863CB61C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E14589-EE4C-491D-89A4-EB22863CB61C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2102,7 +2149,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A4FC26D-BF56-4446-B80D-0C5ACFEDC6A5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A4FC26D-BF56-4446-B80D-0C5ACFEDC6A5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2167,7 +2214,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{118AE21F-A33F-4231-A38E-5951C6EBB37D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118AE21F-A33F-4231-A38E-5951C6EBB37D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2232,7 +2279,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15CC184C-3B0C-4DA5-8121-88D86F00441F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15CC184C-3B0C-4DA5-8121-88D86F00441F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2297,7 +2344,7 @@
           <xdr:cNvPr id="7" name="正方形/長方形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4754AD5B-2B0B-46EE-8B71-66D219D5EC91}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4754AD5B-2B0B-46EE-8B71-66D219D5EC91}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2362,7 +2409,7 @@
           <xdr:cNvPr id="8" name="正方形/長方形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C0B29AA-73DD-4127-8070-ABBDAC015AE8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C0B29AA-73DD-4127-8070-ABBDAC015AE8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2427,7 +2474,7 @@
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E8159FD-54BB-4608-B580-BEF72FA5570A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E8159FD-54BB-4608-B580-BEF72FA5570A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2499,7 +2546,7 @@
           <xdr:cNvPr id="10" name="正方形/長方形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB6D827E-0519-43AB-8D27-FC082F456CD0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB6D827E-0519-43AB-8D27-FC082F456CD0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2553,7 +2600,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>【eternal】API仕様書_Ref002_トークテーマジャンル一覧取得</a:t>
+              <a:t>【eternal】API仕様書_Ref002_トークテーマカテゴリ一覧取得</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -2571,7 +2618,7 @@
           <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7C6F2712-88AD-4AB8-86C6-D7FB58A2F819}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C6F2712-88AD-4AB8-86C6-D7FB58A2F819}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2625,7 +2672,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>2018年11月30日 金曜日</a:t>
+              <a:t>2018年11月30日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -2643,7 +2690,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15534BB0-4CA1-44E0-A343-8E7681B066C1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15534BB0-4CA1-44E0-A343-8E7681B066C1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2715,7 +2762,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CFCA127E-94E6-429E-9CA3-34DA0CE0CE72}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFCA127E-94E6-429E-9CA3-34DA0CE0CE72}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2787,7 +2834,7 @@
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{333B060A-0145-448A-A964-D699A9FE1714}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{333B060A-0145-448A-A964-D699A9FE1714}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2880,7 +2927,7 @@
         <xdr:cNvPr id="2" name="グループ化 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D26842C9-0618-40AE-B87D-E87EF0BA4636}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D26842C9-0618-40AE-B87D-E87EF0BA4636}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2888,7 +2935,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="74705" y="116731"/>
+          <a:off x="82643" y="120700"/>
           <a:ext cx="17133796" cy="579351"/>
           <a:chOff x="78440" y="633133"/>
           <a:chExt cx="16932090" cy="573749"/>
@@ -2899,7 +2946,7 @@
           <xdr:cNvPr id="3" name="正方形/長方形 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67FBE5C9-53BB-4CF8-8AD1-EB095CBE281F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67FBE5C9-53BB-4CF8-8AD1-EB095CBE281F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2964,7 +3011,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6BA1B8A-20F1-46E8-94E5-10EC4AEE2D09}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6BA1B8A-20F1-46E8-94E5-10EC4AEE2D09}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3029,7 +3076,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9780BBE8-AC48-4FB7-AAE5-FCCABF1F3CAB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9780BBE8-AC48-4FB7-AAE5-FCCABF1F3CAB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3094,7 +3141,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75E881EB-BDAC-49DC-BC18-62C7AFFF07EB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75E881EB-BDAC-49DC-BC18-62C7AFFF07EB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3159,7 +3206,7 @@
           <xdr:cNvPr id="7" name="正方形/長方形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8F811C6-71CA-4EB7-AA95-42C42BEC18E6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8F811C6-71CA-4EB7-AA95-42C42BEC18E6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3224,7 +3271,7 @@
           <xdr:cNvPr id="8" name="正方形/長方形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DFC81A55-158C-448F-BC49-95752FE3AC2A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC81A55-158C-448F-BC49-95752FE3AC2A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3289,7 +3336,7 @@
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E94C7391-D5EA-46A1-90B1-7F7F94EB8CAE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E94C7391-D5EA-46A1-90B1-7F7F94EB8CAE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3361,7 +3408,7 @@
           <xdr:cNvPr id="10" name="正方形/長方形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D45A86A5-E097-4C25-966B-43675226397A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45A86A5-E097-4C25-966B-43675226397A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3415,7 +3462,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>【eternal】API仕様書_Ref002_トークテーマジャンル一覧取得</a:t>
+              <a:t>【eternal】API仕様書_Ref002_トークテーマカテゴリ一覧取得</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -3433,7 +3480,7 @@
           <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15205912-C6AF-458D-B46C-B7B5D8916BEF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15205912-C6AF-458D-B46C-B7B5D8916BEF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3487,7 +3534,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>2018年11月30日 金曜日</a:t>
+              <a:t>2018年11月30日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -3505,7 +3552,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08AB3292-595D-4F80-888F-88AA0A053D67}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08AB3292-595D-4F80-888F-88AA0A053D67}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3577,7 +3624,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E37098A9-4FA1-4543-9354-A3F5552B7C0F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E37098A9-4FA1-4543-9354-A3F5552B7C0F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3631,7 +3678,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> </a:t>
+              <a:t>2019年1月2日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -3649,7 +3696,7 @@
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD461C66-31E3-4F1F-A282-33FBF4E7E16F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD461C66-31E3-4F1F-A282-33FBF4E7E16F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3703,7 +3750,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> </a:t>
+              <a:t>柴</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -3726,23 +3773,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="表紙"/>
       <sheetName val="変更履歴"/>
-      <sheetName val="画面仕様(XXX画面)"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>0.0.1</v>
-          </cell>
-          <cell r="D5">
-            <v>42736</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4034,61 +4068,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AY35"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="3.1640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="1.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.1640625" style="1"/>
-    <col min="3" max="3" width="3.1640625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="3.1640625" style="1"/>
+    <col min="1" max="1" width="1.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.125" style="1"/>
+    <col min="3" max="3" width="3.125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="3.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-    </row>
-    <row r="2" spans="1:26" ht="26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
+      <c r="A1" s="8"/>
+    </row>
+    <row r="2" spans="1:26" ht="24.75">
       <c r="B2" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="35.25">
       <c r="C10" s="3" t="str">
         <f ca="1">SUBSTITUTE(MID(CELL("filename",A1),FIND("[",CELL("filename",A1))+1,FIND("]",CELL("filename",A1))-FIND("[",CELL("filename",A1))-1),".xlsx","")</f>
-        <v>【eternal】API仕様書_Ref002_トークテーマジャンル一覧取得</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
-    </row>
-    <row r="21" spans="2:51" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+        <v>【eternal】API仕様書_Ref002_トークテーマカテゴリ一覧取得</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
+    </row>
+    <row r="21" spans="2:51" ht="3" customHeight="1">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -4140,44 +4174,44 @@
       <c r="AX21" s="4"/>
       <c r="AY21" s="4"/>
     </row>
-    <row r="22" spans="2:51" ht="20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:51" ht="19.5">
       <c r="C22" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="AO27" s="37">
+    <row r="27" spans="2:51">
+      <c r="AO27" s="39">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(改訂日),COLUMN(改訂日),4,1),1)&amp;COUNTA(改訂日)+4)</f>
-        <v>43449</v>
-      </c>
-      <c r="AP27" s="38"/>
-      <c r="AQ27" s="38"/>
-      <c r="AR27" s="38"/>
-      <c r="AS27" s="38"/>
-      <c r="AT27" s="38"/>
-      <c r="AU27" s="38"/>
-      <c r="AV27" s="38"/>
-      <c r="AW27" s="38"/>
-      <c r="AX27" s="38"/>
-      <c r="AY27" s="38"/>
-    </row>
-    <row r="28" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="AR28" s="39" t="str">
+        <v>43467</v>
+      </c>
+      <c r="AP27" s="40"/>
+      <c r="AQ27" s="40"/>
+      <c r="AR27" s="40"/>
+      <c r="AS27" s="40"/>
+      <c r="AT27" s="40"/>
+      <c r="AU27" s="40"/>
+      <c r="AV27" s="40"/>
+      <c r="AW27" s="40"/>
+      <c r="AX27" s="40"/>
+      <c r="AY27" s="40"/>
+    </row>
+    <row r="28" spans="2:51">
+      <c r="AR28" s="41" t="str">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(版),COLUMN(版),4,1),1)&amp;COUNTA(版)+4)</f>
-        <v>0.0.1</v>
-      </c>
-      <c r="AS28" s="39"/>
-      <c r="AT28" s="39"/>
-      <c r="AU28" s="39"/>
-      <c r="AV28" s="39"/>
-      <c r="AW28" s="39"/>
-      <c r="AX28" s="39"/>
-      <c r="AY28" s="39"/>
-    </row>
-    <row r="31" spans="2:51" x14ac:dyDescent="0.25">
+        <v>0.0.2</v>
+      </c>
+      <c r="AS28" s="41"/>
+      <c r="AT28" s="41"/>
+      <c r="AU28" s="41"/>
+      <c r="AV28" s="41"/>
+      <c r="AW28" s="41"/>
+      <c r="AX28" s="41"/>
+      <c r="AY28" s="41"/>
+    </row>
+    <row r="31" spans="2:51">
       <c r="AR31" s="6"/>
     </row>
-    <row r="35" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="6" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="AO27:AY27"/>
@@ -4186,36 +4220,51 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="82" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" fitToWidth="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:E25"/>
+  <dimension ref="B1:E25"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="79.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="1.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="73" customWidth="1"/>
+    <col min="3" max="3" width="79.625" style="73" customWidth="1"/>
+    <col min="4" max="4" width="17" style="73" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="73" customWidth="1"/>
+    <col min="6" max="6" width="1.625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
@@ -4229,150 +4278,158 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
+    <row r="5" spans="2:5">
+      <c r="B5" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="71">
         <v>43449</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="72" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="18"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="8"/>
+    <row r="6" spans="2:5" ht="93.75">
+      <c r="B6" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="71">
+        <v>43467</v>
+      </c>
+      <c r="E6" s="72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="69"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="72"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="69"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="72"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="69"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="72"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="69"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="72"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="69"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="72"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="69"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="72"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="72"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="72"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="72"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="72"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="72"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="72"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="72"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="72"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="72"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="72"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="72"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="72"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="72"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="72"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="72"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="72"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="72"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="72"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="72"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="72"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="87" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:CC18"/>
@@ -4382,279 +4439,283 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="3.1640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="0.83203125" style="12" customWidth="1"/>
-    <col min="2" max="74" width="3.1640625" style="12" customWidth="1"/>
-    <col min="75" max="75" width="3.1640625" style="12"/>
-    <col min="76" max="82" width="8.6640625" style="12" customWidth="1"/>
-    <col min="83" max="16384" width="3.1640625" style="12"/>
+    <col min="1" max="1" width="0.875" style="9" customWidth="1"/>
+    <col min="2" max="74" width="3.125" style="9" customWidth="1"/>
+    <col min="75" max="75" width="3.125" style="9"/>
+    <col min="76" max="82" width="8.625" style="9" customWidth="1"/>
+    <col min="83" max="16384" width="3.125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:81" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:81" x14ac:dyDescent="0.35">
-      <c r="BX2" s="13" t="s">
+    <row r="1" spans="2:81" ht="6.75" customHeight="1"/>
+    <row r="2" spans="2:81">
+      <c r="BX2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="BY2" s="13" t="s">
+      <c r="BY2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="BZ2" s="13" t="s">
+      <c r="BZ2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="CA2" s="13" t="s">
+      <c r="CA2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="CB2" s="13" t="s">
+      <c r="CB2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="CC2" s="13" t="s">
+      <c r="CC2" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:81" x14ac:dyDescent="0.35">
-      <c r="BX3" s="13" t="s">
+    <row r="3" spans="2:81">
+      <c r="BX3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="BY3" s="12" t="str">
+      <c r="BY3" s="9" t="str">
         <f ca="1">REPLACE(LEFT(CELL("filename",$A$1),FIND(".x",CELL("filename",$A$1))-1),1,FIND("[",CELL("filename",$A$1)),)</f>
-        <v>【eternal】API仕様書_Ref002_トークテーマジャンル一覧取得</v>
-      </c>
-      <c r="BZ3" s="14">
+        <v>【eternal】API仕様書_Ref002_トークテーマカテゴリ一覧取得</v>
+      </c>
+      <c r="BZ3" s="11">
         <v>43449</v>
       </c>
-      <c r="CA3" s="13" t="s">
+      <c r="CA3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="CB3" s="14"/>
-      <c r="CC3" s="13"/>
-    </row>
-    <row r="4" spans="2:81" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+      <c r="CB3" s="11">
+        <v>43467</v>
+      </c>
+      <c r="CC3" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:81" ht="18" customHeight="1"/>
+    <row r="6" spans="2:81">
+      <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="C7" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="C8" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
+    <row r="7" spans="2:81">
+      <c r="C7" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:81">
+      <c r="C8" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:81">
+      <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:81" ht="20" x14ac:dyDescent="0.35">
-      <c r="C11" s="27" t="s">
+    <row r="11" spans="2:81" ht="19.5">
+      <c r="C11" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="27" t="s">
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="28"/>
-      <c r="AG11" s="28"/>
-      <c r="AH11" s="23"/>
-    </row>
-    <row r="12" spans="2:81" ht="20" x14ac:dyDescent="0.35">
-      <c r="C12" s="41" t="s">
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="24"/>
+      <c r="AG11" s="24"/>
+      <c r="AH11" s="19"/>
+    </row>
+    <row r="12" spans="2:81" ht="19.5">
+      <c r="C12" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="29" t="s">
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="14"/>
+    </row>
+    <row r="14" spans="2:81">
+      <c r="B14" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:81">
+      <c r="C15" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:81">
+      <c r="C16" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="22"/>
+    </row>
+    <row r="17" spans="3:34">
+      <c r="C17" s="15">
+        <v>1</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="16"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="16"/>
+      <c r="AG17" s="16"/>
+      <c r="AH17" s="17"/>
+    </row>
+    <row r="18" spans="3:34">
+      <c r="C18" s="15">
+        <v>2</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="16"/>
-      <c r="AG12" s="16"/>
-      <c r="AH12" s="17"/>
-    </row>
-    <row r="14" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="C15" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="C16" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="25"/>
-      <c r="AC16" s="25"/>
-      <c r="AD16" s="25"/>
-      <c r="AE16" s="25"/>
-      <c r="AF16" s="25"/>
-      <c r="AG16" s="25"/>
-      <c r="AH16" s="26"/>
-    </row>
-    <row r="17" spans="3:34" x14ac:dyDescent="0.25">
-      <c r="C17" s="19">
-        <v>1</v>
-      </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="20"/>
-      <c r="AE17" s="20"/>
-      <c r="AF17" s="20"/>
-      <c r="AG17" s="20"/>
-      <c r="AH17" s="21"/>
-    </row>
-    <row r="18" spans="3:34" x14ac:dyDescent="0.25">
-      <c r="C18" s="19">
-        <v>2</v>
-      </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="19" t="s">
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="20"/>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="20"/>
-      <c r="AB18" s="20"/>
-      <c r="AC18" s="20"/>
-      <c r="AD18" s="20"/>
-      <c r="AE18" s="20"/>
-      <c r="AF18" s="20"/>
-      <c r="AG18" s="20"/>
-      <c r="AH18" s="21"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="16"/>
+      <c r="AG18" s="16"/>
+      <c r="AH18" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4662,19 +4723,19 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"GET,POST,PUT,DELETE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:CC16"/>
@@ -4684,378 +4745,378 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="3.1640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="0.83203125" style="12" customWidth="1"/>
-    <col min="2" max="74" width="3.1640625" style="12" customWidth="1"/>
-    <col min="75" max="75" width="3.1640625" style="12"/>
-    <col min="76" max="82" width="8.6640625" style="12" customWidth="1"/>
-    <col min="83" max="16384" width="3.1640625" style="12"/>
+    <col min="1" max="1" width="0.875" style="9" customWidth="1"/>
+    <col min="2" max="74" width="3.125" style="9" customWidth="1"/>
+    <col min="75" max="75" width="3.125" style="9"/>
+    <col min="76" max="82" width="8.625" style="9" customWidth="1"/>
+    <col min="83" max="16384" width="3.125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:81" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:81" x14ac:dyDescent="0.35">
-      <c r="BX2" s="13" t="s">
+    <row r="1" spans="2:81" ht="6.75" customHeight="1"/>
+    <row r="2" spans="2:81">
+      <c r="BX2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="BY2" s="13" t="s">
+      <c r="BY2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="BZ2" s="13" t="s">
+      <c r="BZ2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="CA2" s="13" t="s">
+      <c r="CA2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="CB2" s="13" t="s">
+      <c r="CB2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="CC2" s="13" t="s">
+      <c r="CC2" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:81" x14ac:dyDescent="0.35">
-      <c r="BX3" s="13" t="s">
+    <row r="3" spans="2:81">
+      <c r="BX3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="BY3" s="12" t="str">
+      <c r="BY3" s="9" t="str">
         <f ca="1">REPLACE(LEFT(CELL("filename",$A$1),FIND(".x",CELL("filename",$A$1))-1),1,FIND("[",CELL("filename",$A$1)),)</f>
-        <v>【eternal】API仕様書_Ref002_トークテーマジャンル一覧取得</v>
-      </c>
-      <c r="BZ3" s="14">
+        <v>【eternal】API仕様書_Ref002_トークテーマカテゴリ一覧取得</v>
+      </c>
+      <c r="BZ3" s="11">
         <v>43434</v>
       </c>
-      <c r="CA3" s="13" t="s">
+      <c r="CA3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="CB3" s="14"/>
-      <c r="CC3" s="13"/>
-    </row>
-    <row r="4" spans="2:81" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+      <c r="CB3" s="11"/>
+      <c r="CC3" s="10"/>
+    </row>
+    <row r="4" spans="2:81" ht="18" customHeight="1"/>
+    <row r="6" spans="2:81">
+      <c r="B6" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="C7" s="12" t="s">
+    <row r="7" spans="2:81">
+      <c r="C7" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="BX7" s="12" t="s">
+      <c r="BX7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="CA7" s="12" t="s">
+      <c r="CA7" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="C8" s="22" t="s">
+    <row r="8" spans="2:81">
+      <c r="C8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="22" t="s">
+      <c r="D8" s="19"/>
+      <c r="E8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="22" t="s">
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="22" t="s">
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="22" t="s">
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="23"/>
-      <c r="AG8" s="22" t="s">
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="24"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AH8" s="23"/>
-      <c r="AI8" s="22" t="s">
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="AJ8" s="28"/>
-      <c r="AK8" s="28"/>
-      <c r="AL8" s="28"/>
-      <c r="AM8" s="28"/>
-      <c r="AN8" s="28"/>
-      <c r="AO8" s="28"/>
-      <c r="AP8" s="28"/>
-      <c r="AQ8" s="28"/>
-      <c r="AR8" s="28"/>
-      <c r="AS8" s="28"/>
-      <c r="AT8" s="28"/>
-      <c r="AU8" s="28"/>
-      <c r="AV8" s="28"/>
-      <c r="AW8" s="28"/>
-      <c r="AX8" s="23"/>
-      <c r="BX8" s="12" t="s">
+      <c r="AJ8" s="24"/>
+      <c r="AK8" s="24"/>
+      <c r="AL8" s="24"/>
+      <c r="AM8" s="24"/>
+      <c r="AN8" s="24"/>
+      <c r="AO8" s="24"/>
+      <c r="AP8" s="24"/>
+      <c r="AQ8" s="24"/>
+      <c r="AR8" s="24"/>
+      <c r="AS8" s="24"/>
+      <c r="AT8" s="24"/>
+      <c r="AU8" s="24"/>
+      <c r="AV8" s="24"/>
+      <c r="AW8" s="24"/>
+      <c r="AX8" s="19"/>
+      <c r="BX8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="CA8" s="12" t="s">
+      <c r="CA8" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="C9" s="44">
+    <row r="9" spans="2:81">
+      <c r="C9" s="49">
         <f>ROW()-ROW($C$8)</f>
         <v>1</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44" t="s">
+      <c r="D9" s="49"/>
+      <c r="E9" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH9" s="50"/>
+      <c r="AI9" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44" t="s">
+      <c r="AJ9" s="51"/>
+      <c r="AK9" s="51"/>
+      <c r="AL9" s="51"/>
+      <c r="AM9" s="51"/>
+      <c r="AN9" s="51"/>
+      <c r="AO9" s="51"/>
+      <c r="AP9" s="51"/>
+      <c r="AQ9" s="51"/>
+      <c r="AR9" s="51"/>
+      <c r="AS9" s="51"/>
+      <c r="AT9" s="51"/>
+      <c r="AU9" s="51"/>
+      <c r="AV9" s="51"/>
+      <c r="AW9" s="51"/>
+      <c r="AX9" s="51"/>
+      <c r="BX9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="44"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="44"/>
-      <c r="Z9" s="44" t="s">
+      <c r="CA9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AA9" s="44"/>
-      <c r="AB9" s="44"/>
-      <c r="AC9" s="44"/>
-      <c r="AD9" s="44"/>
-      <c r="AE9" s="44"/>
-      <c r="AF9" s="44"/>
-      <c r="AG9" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH9" s="45"/>
-      <c r="AI9" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ9" s="46"/>
-      <c r="AK9" s="46"/>
-      <c r="AL9" s="46"/>
-      <c r="AM9" s="46"/>
-      <c r="AN9" s="46"/>
-      <c r="AO9" s="46"/>
-      <c r="AP9" s="46"/>
-      <c r="AQ9" s="46"/>
-      <c r="AR9" s="46"/>
-      <c r="AS9" s="46"/>
-      <c r="AT9" s="46"/>
-      <c r="AU9" s="46"/>
-      <c r="AV9" s="46"/>
-      <c r="AW9" s="46"/>
-      <c r="AX9" s="46"/>
-      <c r="BX9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="CA9" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="2:81" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="44">
+    </row>
+    <row r="10" spans="2:81" ht="18.95" customHeight="1">
+      <c r="C10" s="49">
         <f>ROW()-ROW($C$8)</f>
         <v>2</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44" t="s">
+      <c r="D10" s="49"/>
+      <c r="E10" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44" t="s">
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44" t="s">
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44"/>
-      <c r="V10" s="44"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="44"/>
-      <c r="Z10" s="44" t="s">
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="49"/>
+      <c r="AF10" s="49"/>
+      <c r="AG10" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH10" s="50"/>
+      <c r="AI10" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="AA10" s="44"/>
-      <c r="AB10" s="44"/>
-      <c r="AC10" s="44"/>
-      <c r="AD10" s="44"/>
-      <c r="AE10" s="44"/>
-      <c r="AF10" s="44"/>
-      <c r="AG10" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH10" s="45"/>
-      <c r="AI10" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ10" s="46"/>
-      <c r="AK10" s="46"/>
-      <c r="AL10" s="46"/>
-      <c r="AM10" s="46"/>
-      <c r="AN10" s="46"/>
-      <c r="AO10" s="46"/>
-      <c r="AP10" s="46"/>
-      <c r="AQ10" s="46"/>
-      <c r="AR10" s="46"/>
-      <c r="AS10" s="46"/>
-      <c r="AT10" s="46"/>
-      <c r="AU10" s="46"/>
-      <c r="AV10" s="46"/>
-      <c r="AW10" s="46"/>
-      <c r="AX10" s="46"/>
-      <c r="BX10" s="12" t="s">
+      <c r="AJ10" s="51"/>
+      <c r="AK10" s="51"/>
+      <c r="AL10" s="51"/>
+      <c r="AM10" s="51"/>
+      <c r="AN10" s="51"/>
+      <c r="AO10" s="51"/>
+      <c r="AP10" s="51"/>
+      <c r="AQ10" s="51"/>
+      <c r="AR10" s="51"/>
+      <c r="AS10" s="51"/>
+      <c r="AT10" s="51"/>
+      <c r="AU10" s="51"/>
+      <c r="AV10" s="51"/>
+      <c r="AW10" s="51"/>
+      <c r="AX10" s="51"/>
+      <c r="BX10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="CA10" s="12" t="s">
+      <c r="CA10" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="2:81" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="44">
+    <row r="11" spans="2:81" ht="57" customHeight="1">
+      <c r="C11" s="49">
         <f t="shared" ref="C11:C12" si="0">ROW()-ROW($C$8)</f>
         <v>3</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44" t="s">
+      <c r="D11" s="49"/>
+      <c r="E11" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44" t="s">
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="T11" s="44"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="44"/>
-      <c r="Z11" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA11" s="44"/>
-      <c r="AB11" s="44"/>
-      <c r="AC11" s="44"/>
-      <c r="AD11" s="44"/>
-      <c r="AE11" s="44"/>
-      <c r="AF11" s="44"/>
-      <c r="AG11" s="45" t="s">
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="AH11" s="45"/>
-      <c r="AI11" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ11" s="46"/>
-      <c r="AK11" s="46"/>
-      <c r="AL11" s="46"/>
-      <c r="AM11" s="46"/>
-      <c r="AN11" s="46"/>
-      <c r="AO11" s="46"/>
-      <c r="AP11" s="46"/>
-      <c r="AQ11" s="46"/>
-      <c r="AR11" s="46"/>
-      <c r="AS11" s="46"/>
-      <c r="AT11" s="46"/>
-      <c r="AU11" s="46"/>
-      <c r="AV11" s="46"/>
-      <c r="AW11" s="46"/>
-      <c r="AX11" s="46"/>
-      <c r="BX11" s="12" t="s">
+      <c r="AH11" s="50"/>
+      <c r="AI11" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ11" s="51"/>
+      <c r="AK11" s="51"/>
+      <c r="AL11" s="51"/>
+      <c r="AM11" s="51"/>
+      <c r="AN11" s="51"/>
+      <c r="AO11" s="51"/>
+      <c r="AP11" s="51"/>
+      <c r="AQ11" s="51"/>
+      <c r="AR11" s="51"/>
+      <c r="AS11" s="51"/>
+      <c r="AT11" s="51"/>
+      <c r="AU11" s="51"/>
+      <c r="AV11" s="51"/>
+      <c r="AW11" s="51"/>
+      <c r="AX11" s="51"/>
+      <c r="BX11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="CA11" s="12" t="s">
+      <c r="CA11" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:81" ht="38" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="57">
+    <row r="12" spans="2:81" ht="38.1" customHeight="1">
+      <c r="C12" s="46">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="57" t="s">
-        <v>62</v>
+      <c r="D12" s="47"/>
+      <c r="E12" s="46" t="s">
+        <v>61</v>
       </c>
       <c r="F12" s="48"/>
       <c r="G12" s="48"/>
       <c r="H12" s="48"/>
       <c r="I12" s="48"/>
       <c r="J12" s="48"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="57" t="s">
-        <v>63</v>
+      <c r="K12" s="47"/>
+      <c r="L12" s="46" t="s">
+        <v>62</v>
       </c>
       <c r="M12" s="48"/>
       <c r="N12" s="48"/>
       <c r="O12" s="48"/>
       <c r="P12" s="48"/>
       <c r="Q12" s="48"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="57" t="s">
+      <c r="R12" s="47"/>
+      <c r="S12" s="46" t="s">
         <v>31</v>
       </c>
       <c r="T12" s="48"/>
@@ -5063,184 +5124,175 @@
       <c r="V12" s="48"/>
       <c r="W12" s="48"/>
       <c r="X12" s="48"/>
-      <c r="Y12" s="49"/>
-      <c r="Z12" s="57" t="s">
-        <v>64</v>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="46" t="s">
+        <v>63</v>
       </c>
       <c r="AA12" s="48"/>
       <c r="AB12" s="48"/>
       <c r="AC12" s="48"/>
       <c r="AD12" s="48"/>
       <c r="AE12" s="48"/>
-      <c r="AF12" s="49"/>
-      <c r="AG12" s="55" t="s">
+      <c r="AF12" s="47"/>
+      <c r="AG12" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="AH12" s="56"/>
-      <c r="AI12" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ12" s="53"/>
-      <c r="AK12" s="53"/>
-      <c r="AL12" s="53"/>
-      <c r="AM12" s="53"/>
-      <c r="AN12" s="53"/>
-      <c r="AO12" s="53"/>
-      <c r="AP12" s="53"/>
-      <c r="AQ12" s="53"/>
-      <c r="AR12" s="53"/>
-      <c r="AS12" s="53"/>
-      <c r="AT12" s="53"/>
-      <c r="AU12" s="53"/>
-      <c r="AV12" s="53"/>
-      <c r="AW12" s="53"/>
-      <c r="AX12" s="54"/>
-      <c r="CA12" s="12" t="s">
+      <c r="AH12" s="53"/>
+      <c r="AI12" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ12" s="55"/>
+      <c r="AK12" s="55"/>
+      <c r="AL12" s="55"/>
+      <c r="AM12" s="55"/>
+      <c r="AN12" s="55"/>
+      <c r="AO12" s="55"/>
+      <c r="AP12" s="55"/>
+      <c r="AQ12" s="55"/>
+      <c r="AR12" s="55"/>
+      <c r="AS12" s="55"/>
+      <c r="AT12" s="55"/>
+      <c r="AU12" s="55"/>
+      <c r="AV12" s="55"/>
+      <c r="AW12" s="55"/>
+      <c r="AX12" s="56"/>
+      <c r="CA12" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="CA13" s="12" t="s">
+    <row r="13" spans="2:81">
+      <c r="CA13" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="C14" s="12" t="s">
+    <row r="14" spans="2:81">
+      <c r="C14" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="C15" s="22" t="s">
+    <row r="15" spans="2:81">
+      <c r="C15" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="22" t="s">
+      <c r="D15" s="19"/>
+      <c r="E15" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="22" t="s">
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="22" t="s">
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="22" t="s">
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="28"/>
-      <c r="AE15" s="28"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="22" t="s">
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="24"/>
+      <c r="AE15" s="24"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AH15" s="23"/>
-      <c r="AI15" s="22" t="s">
+      <c r="AH15" s="19"/>
+      <c r="AI15" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="AJ15" s="28"/>
-      <c r="AK15" s="28"/>
-      <c r="AL15" s="28"/>
-      <c r="AM15" s="28"/>
-      <c r="AN15" s="28"/>
-      <c r="AO15" s="28"/>
-      <c r="AP15" s="28"/>
-      <c r="AQ15" s="28"/>
-      <c r="AR15" s="28"/>
-      <c r="AS15" s="28"/>
-      <c r="AT15" s="28"/>
-      <c r="AU15" s="28"/>
-      <c r="AV15" s="28"/>
-      <c r="AW15" s="28"/>
-      <c r="AX15" s="23"/>
-    </row>
-    <row r="16" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="C16" s="44" t="s">
+      <c r="AJ15" s="24"/>
+      <c r="AK15" s="24"/>
+      <c r="AL15" s="24"/>
+      <c r="AM15" s="24"/>
+      <c r="AN15" s="24"/>
+      <c r="AO15" s="24"/>
+      <c r="AP15" s="24"/>
+      <c r="AQ15" s="24"/>
+      <c r="AR15" s="24"/>
+      <c r="AS15" s="24"/>
+      <c r="AT15" s="24"/>
+      <c r="AU15" s="24"/>
+      <c r="AV15" s="24"/>
+      <c r="AW15" s="24"/>
+      <c r="AX15" s="19"/>
+    </row>
+    <row r="16" spans="2:81">
+      <c r="C16" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="44"/>
-      <c r="Z16" s="44"/>
-      <c r="AA16" s="44"/>
-      <c r="AB16" s="44"/>
-      <c r="AC16" s="44"/>
-      <c r="AD16" s="44"/>
-      <c r="AE16" s="44"/>
-      <c r="AF16" s="44"/>
-      <c r="AG16" s="45"/>
-      <c r="AH16" s="45"/>
-      <c r="AI16" s="46"/>
-      <c r="AJ16" s="46"/>
-      <c r="AK16" s="46"/>
-      <c r="AL16" s="46"/>
-      <c r="AM16" s="46"/>
-      <c r="AN16" s="46"/>
-      <c r="AO16" s="46"/>
-      <c r="AP16" s="46"/>
-      <c r="AQ16" s="46"/>
-      <c r="AR16" s="46"/>
-      <c r="AS16" s="46"/>
-      <c r="AT16" s="46"/>
-      <c r="AU16" s="46"/>
-      <c r="AV16" s="46"/>
-      <c r="AW16" s="46"/>
-      <c r="AX16" s="46"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="49"/>
+      <c r="AA16" s="49"/>
+      <c r="AB16" s="49"/>
+      <c r="AC16" s="49"/>
+      <c r="AD16" s="49"/>
+      <c r="AE16" s="49"/>
+      <c r="AF16" s="49"/>
+      <c r="AG16" s="50"/>
+      <c r="AH16" s="50"/>
+      <c r="AI16" s="51"/>
+      <c r="AJ16" s="51"/>
+      <c r="AK16" s="51"/>
+      <c r="AL16" s="51"/>
+      <c r="AM16" s="51"/>
+      <c r="AN16" s="51"/>
+      <c r="AO16" s="51"/>
+      <c r="AP16" s="51"/>
+      <c r="AQ16" s="51"/>
+      <c r="AR16" s="51"/>
+      <c r="AS16" s="51"/>
+      <c r="AT16" s="51"/>
+      <c r="AU16" s="51"/>
+      <c r="AV16" s="51"/>
+      <c r="AW16" s="51"/>
+      <c r="AX16" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:K12"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="S12:Y12"/>
-    <mergeCell ref="Z12:AF12"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:K9"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:K11"/>
-    <mergeCell ref="L11:R11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:K10"/>
-    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:K16"/>
+    <mergeCell ref="L16:R16"/>
+    <mergeCell ref="S16:Y16"/>
+    <mergeCell ref="Z16:AF16"/>
     <mergeCell ref="AG16:AH16"/>
     <mergeCell ref="AI16:AX16"/>
     <mergeCell ref="S9:Y9"/>
@@ -5257,27 +5309,36 @@
     <mergeCell ref="Z10:AF10"/>
     <mergeCell ref="AG10:AH10"/>
     <mergeCell ref="AI10:AX10"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:K16"/>
-    <mergeCell ref="L16:R16"/>
-    <mergeCell ref="S16:Y16"/>
-    <mergeCell ref="Z16:AF16"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:K11"/>
+    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:K10"/>
+    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="S12:Y12"/>
+    <mergeCell ref="Z12:AF12"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG16:AH16 AG9:AH12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG16:AH16 AG9:AH12" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:CC43"/>
@@ -5287,367 +5348,365 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="3.1640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="0.83203125" style="12" customWidth="1"/>
-    <col min="2" max="74" width="3.1640625" style="12" customWidth="1"/>
-    <col min="75" max="75" width="3.1640625" style="12"/>
-    <col min="76" max="82" width="8.6640625" style="12" customWidth="1"/>
-    <col min="83" max="16384" width="3.1640625" style="12"/>
+    <col min="1" max="1" width="0.875" style="9" customWidth="1"/>
+    <col min="2" max="74" width="3.125" style="9" customWidth="1"/>
+    <col min="75" max="75" width="3.125" style="9"/>
+    <col min="76" max="82" width="8.625" style="9" customWidth="1"/>
+    <col min="83" max="16384" width="3.125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:81" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:81" x14ac:dyDescent="0.35">
-      <c r="BX2" s="13" t="s">
+    <row r="1" spans="2:81" ht="6.75" customHeight="1"/>
+    <row r="2" spans="2:81">
+      <c r="BX2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="BY2" s="13" t="s">
+      <c r="BY2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="BZ2" s="13" t="s">
+      <c r="BZ2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="CA2" s="13" t="s">
+      <c r="CA2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="CB2" s="13" t="s">
+      <c r="CB2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="CC2" s="13" t="s">
+      <c r="CC2" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:81" x14ac:dyDescent="0.35">
-      <c r="BX3" s="13" t="s">
+    <row r="3" spans="2:81">
+      <c r="BX3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BY3" s="12" t="str">
+      <c r="BY3" s="9" t="str">
         <f ca="1">REPLACE(LEFT(CELL("filename",$A$1),FIND(".x",CELL("filename",$A$1))-1),1,FIND("[",CELL("filename",$A$1)),)</f>
-        <v>【eternal】API仕様書_Ref002_トークテーマジャンル一覧取得</v>
-      </c>
-      <c r="BZ3" s="14">
+        <v>【eternal】API仕様書_Ref002_トークテーマカテゴリ一覧取得</v>
+      </c>
+      <c r="BZ3" s="11">
         <v>43434</v>
       </c>
-      <c r="CA3" s="13" t="s">
+      <c r="CA3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="CB3" s="14"/>
-      <c r="CC3" s="13"/>
-    </row>
-    <row r="4" spans="2:81" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+      <c r="CB3" s="11">
+        <v>43467</v>
+      </c>
+      <c r="CC3" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:81" ht="18" customHeight="1"/>
+    <row r="6" spans="2:81">
+      <c r="B6" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="C7" s="12" t="s">
+    <row r="7" spans="2:81">
+      <c r="C7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="BX7" s="12" t="s">
+      <c r="BX7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="CA7" s="12" t="s">
+      <c r="CA7" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="C8" s="34" t="s">
+    <row r="8" spans="2:81">
+      <c r="C8" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="28" t="s">
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="22" t="s">
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="22" t="s">
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="22" t="s">
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="28"/>
-      <c r="AG8" s="23"/>
-      <c r="AH8" s="22" t="s">
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="24"/>
+      <c r="AF8" s="24"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AI8" s="23"/>
-      <c r="AJ8" s="22" t="s">
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="AK8" s="28"/>
-      <c r="AL8" s="28"/>
-      <c r="AM8" s="28"/>
-      <c r="AN8" s="28"/>
-      <c r="AO8" s="28"/>
-      <c r="AP8" s="28"/>
-      <c r="AQ8" s="28"/>
-      <c r="AR8" s="28"/>
-      <c r="AS8" s="28"/>
-      <c r="AT8" s="28"/>
-      <c r="AU8" s="28"/>
-      <c r="AV8" s="28"/>
-      <c r="AW8" s="28"/>
-      <c r="AX8" s="28"/>
-      <c r="AY8" s="23"/>
-      <c r="BX8" s="12" t="s">
+      <c r="AK8" s="24"/>
+      <c r="AL8" s="24"/>
+      <c r="AM8" s="24"/>
+      <c r="AN8" s="24"/>
+      <c r="AO8" s="24"/>
+      <c r="AP8" s="24"/>
+      <c r="AQ8" s="24"/>
+      <c r="AR8" s="24"/>
+      <c r="AS8" s="24"/>
+      <c r="AT8" s="24"/>
+      <c r="AU8" s="24"/>
+      <c r="AV8" s="24"/>
+      <c r="AW8" s="24"/>
+      <c r="AX8" s="24"/>
+      <c r="AY8" s="19"/>
+      <c r="BX8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="CA8" s="12" t="s">
+      <c r="CA8" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="C9" s="65">
+    <row r="9" spans="2:81">
+      <c r="C9" s="34">
         <v>1</v>
       </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="48" t="s">
+      <c r="D9" s="35"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="U9" s="60"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB9" s="68"/>
+      <c r="AC9" s="68"/>
+      <c r="AD9" s="68"/>
+      <c r="AE9" s="68"/>
+      <c r="AF9" s="68"/>
+      <c r="AG9" s="68"/>
+      <c r="AH9" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI9" s="61"/>
+      <c r="AJ9" s="62"/>
+      <c r="AK9" s="62"/>
+      <c r="AL9" s="62"/>
+      <c r="AM9" s="62"/>
+      <c r="AN9" s="62"/>
+      <c r="AO9" s="62"/>
+      <c r="AP9" s="62"/>
+      <c r="AQ9" s="62"/>
+      <c r="AR9" s="62"/>
+      <c r="AS9" s="62"/>
+      <c r="AT9" s="62"/>
+      <c r="AU9" s="62"/>
+      <c r="AV9" s="62"/>
+      <c r="AW9" s="62"/>
+      <c r="AX9" s="62"/>
+      <c r="AY9" s="62"/>
+      <c r="BX9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA9" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:81">
+      <c r="C10" s="37"/>
+      <c r="D10" s="38">
+        <v>2</v>
+      </c>
+      <c r="E10" s="36"/>
+      <c r="F10" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="48" t="s">
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="U10" s="60"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="60"/>
+      <c r="X10" s="60"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB10" s="60"/>
+      <c r="AC10" s="60"/>
+      <c r="AD10" s="60"/>
+      <c r="AE10" s="60"/>
+      <c r="AF10" s="60"/>
+      <c r="AG10" s="60"/>
+      <c r="AH10" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI10" s="61"/>
+      <c r="AJ10" s="57"/>
+      <c r="AK10" s="58"/>
+      <c r="AL10" s="58"/>
+      <c r="AM10" s="58"/>
+      <c r="AN10" s="58"/>
+      <c r="AO10" s="58"/>
+      <c r="AP10" s="58"/>
+      <c r="AQ10" s="58"/>
+      <c r="AR10" s="58"/>
+      <c r="AS10" s="58"/>
+      <c r="AT10" s="58"/>
+      <c r="AU10" s="58"/>
+      <c r="AV10" s="58"/>
+      <c r="AW10" s="58"/>
+      <c r="AX10" s="58"/>
+      <c r="AY10" s="59"/>
+      <c r="BX10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CA10" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:81">
+      <c r="C11" s="12"/>
+      <c r="D11" s="27">
+        <v>3</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="50" t="s">
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="50"/>
-      <c r="AE9" s="50"/>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="50"/>
-      <c r="AH9" s="51" t="s">
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB11" s="32"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="32"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="32"/>
+      <c r="AG11" s="33"/>
+      <c r="AH11" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="AI9" s="51"/>
-      <c r="AJ9" s="47"/>
-      <c r="AK9" s="47"/>
-      <c r="AL9" s="47"/>
-      <c r="AM9" s="47"/>
-      <c r="AN9" s="47"/>
-      <c r="AO9" s="47"/>
-      <c r="AP9" s="47"/>
-      <c r="AQ9" s="47"/>
-      <c r="AR9" s="47"/>
-      <c r="AS9" s="47"/>
-      <c r="AT9" s="47"/>
-      <c r="AU9" s="47"/>
-      <c r="AV9" s="47"/>
-      <c r="AW9" s="47"/>
-      <c r="AX9" s="47"/>
-      <c r="AY9" s="47"/>
-      <c r="BX9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="CA9" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="C10" s="68"/>
-      <c r="D10" s="69">
-        <v>2</v>
-      </c>
-      <c r="E10" s="67"/>
-      <c r="F10" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="U10" s="50"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB10" s="50"/>
-      <c r="AC10" s="50"/>
-      <c r="AD10" s="50"/>
-      <c r="AE10" s="50"/>
-      <c r="AF10" s="50"/>
-      <c r="AG10" s="50"/>
-      <c r="AH10" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI10" s="51"/>
-      <c r="AJ10" s="58"/>
-      <c r="AK10" s="59"/>
-      <c r="AL10" s="59"/>
-      <c r="AM10" s="59"/>
-      <c r="AN10" s="59"/>
-      <c r="AO10" s="59"/>
-      <c r="AP10" s="59"/>
-      <c r="AQ10" s="59"/>
-      <c r="AR10" s="59"/>
-      <c r="AS10" s="59"/>
-      <c r="AT10" s="59"/>
-      <c r="AU10" s="59"/>
-      <c r="AV10" s="59"/>
-      <c r="AW10" s="59"/>
-      <c r="AX10" s="59"/>
-      <c r="AY10" s="60"/>
-      <c r="BX10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="CA10" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="C11" s="15"/>
-      <c r="D11" s="31">
-        <v>3</v>
-      </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="U11" s="63"/>
-      <c r="V11" s="63"/>
-      <c r="W11" s="63"/>
-      <c r="X11" s="63"/>
-      <c r="Y11" s="63"/>
-      <c r="Z11" s="64"/>
-      <c r="AA11" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB11" s="63"/>
-      <c r="AC11" s="63"/>
-      <c r="AD11" s="63"/>
-      <c r="AE11" s="63"/>
-      <c r="AF11" s="63"/>
-      <c r="AG11" s="64"/>
-      <c r="AH11" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI11" s="51"/>
-      <c r="AJ11" s="58"/>
-      <c r="AK11" s="59"/>
-      <c r="AL11" s="59"/>
-      <c r="AM11" s="59"/>
-      <c r="AN11" s="59"/>
-      <c r="AO11" s="59"/>
-      <c r="AP11" s="59"/>
-      <c r="AQ11" s="59"/>
-      <c r="AR11" s="59"/>
-      <c r="AS11" s="59"/>
-      <c r="AT11" s="59"/>
-      <c r="AU11" s="59"/>
-      <c r="AV11" s="59"/>
-      <c r="AW11" s="59"/>
-      <c r="AX11" s="59"/>
-      <c r="AY11" s="60"/>
-      <c r="BX11" s="12" t="s">
+      <c r="AI11" s="61"/>
+      <c r="AJ11" s="57"/>
+      <c r="AK11" s="58"/>
+      <c r="AL11" s="58"/>
+      <c r="AM11" s="58"/>
+      <c r="AN11" s="58"/>
+      <c r="AO11" s="58"/>
+      <c r="AP11" s="58"/>
+      <c r="AQ11" s="58"/>
+      <c r="AR11" s="58"/>
+      <c r="AS11" s="58"/>
+      <c r="AT11" s="58"/>
+      <c r="AU11" s="58"/>
+      <c r="AV11" s="58"/>
+      <c r="AW11" s="58"/>
+      <c r="AX11" s="58"/>
+      <c r="AY11" s="59"/>
+      <c r="BX11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="CA11" s="12" t="s">
+      <c r="CA11" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="CA12" s="12" t="s">
+    <row r="12" spans="2:81">
+      <c r="CA12" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="CA13" s="12" t="s">
+    <row r="13" spans="2:81">
+      <c r="CA13" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" ht="19" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="18.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AJ10:AY10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="T10:Z10"/>
-    <mergeCell ref="AA10:AG10"/>
-    <mergeCell ref="AH10:AI10"/>
     <mergeCell ref="AJ11:AY11"/>
     <mergeCell ref="AH11:AI11"/>
     <mergeCell ref="AH9:AI9"/>
@@ -5656,15 +5715,21 @@
     <mergeCell ref="M9:S9"/>
     <mergeCell ref="T9:Z9"/>
     <mergeCell ref="AA9:AG9"/>
+    <mergeCell ref="AJ10:AY10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="T10:Z10"/>
+    <mergeCell ref="AA10:AG10"/>
+    <mergeCell ref="AH10:AI10"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH9:AI11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH9:AI11" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Ref002_トークテーマカテゴリ一覧取得.xlsx
+++ b/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Ref002_トークテーマカテゴリ一覧取得.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2844378A-CB2B-4DF2-BB27-C2B97F70F893}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9296B93B-0C74-4B75-9AC7-41621C1D5E4F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45" yWindow="465" windowWidth="38400" windowHeight="21135" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">レスポンス!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'概要(トークテーマカテゴリ一覧取得)'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">リクエスト!$A$1:$BV$18</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">レスポンス!$A$1:$BV$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">レスポンス!$A$1:$BV$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'概要(トークテーマカテゴリ一覧取得)'!$A$1:$BV$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AZ$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$F$26</definedName>
@@ -39,7 +39,7 @@
     <definedName name="版" localSheetId="2">[1]変更履歴!$B$5:$B$25</definedName>
     <definedName name="版">変更履歴!$B$5:$B$25</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1052,6 +1052,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1073,6 +1097,30 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1082,30 +1130,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1116,9 +1140,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1130,32 +1151,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4097,30 +4097,30 @@
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="42"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="50"/>
     </row>
     <row r="21" spans="2:51" ht="3" customHeight="1">
       <c r="B21" s="4"/>
@@ -4180,33 +4180,33 @@
       </c>
     </row>
     <row r="27" spans="2:51">
-      <c r="AO27" s="39">
+      <c r="AO27" s="47">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(改訂日),COLUMN(改訂日),4,1),1)&amp;COUNTA(改訂日)+4)</f>
         <v>43467</v>
       </c>
-      <c r="AP27" s="40"/>
-      <c r="AQ27" s="40"/>
-      <c r="AR27" s="40"/>
-      <c r="AS27" s="40"/>
-      <c r="AT27" s="40"/>
-      <c r="AU27" s="40"/>
-      <c r="AV27" s="40"/>
-      <c r="AW27" s="40"/>
-      <c r="AX27" s="40"/>
-      <c r="AY27" s="40"/>
+      <c r="AP27" s="48"/>
+      <c r="AQ27" s="48"/>
+      <c r="AR27" s="48"/>
+      <c r="AS27" s="48"/>
+      <c r="AT27" s="48"/>
+      <c r="AU27" s="48"/>
+      <c r="AV27" s="48"/>
+      <c r="AW27" s="48"/>
+      <c r="AX27" s="48"/>
+      <c r="AY27" s="48"/>
     </row>
     <row r="28" spans="2:51">
-      <c r="AR28" s="41" t="str">
+      <c r="AR28" s="49" t="str">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(版),COLUMN(版),4,1),1)&amp;COUNTA(版)+4)</f>
         <v>0.0.2</v>
       </c>
-      <c r="AS28" s="41"/>
-      <c r="AT28" s="41"/>
-      <c r="AU28" s="41"/>
-      <c r="AV28" s="41"/>
-      <c r="AW28" s="41"/>
-      <c r="AX28" s="41"/>
-      <c r="AY28" s="41"/>
+      <c r="AS28" s="49"/>
+      <c r="AT28" s="49"/>
+      <c r="AU28" s="49"/>
+      <c r="AV28" s="49"/>
+      <c r="AW28" s="49"/>
+      <c r="AX28" s="49"/>
+      <c r="AY28" s="49"/>
     </row>
     <row r="31" spans="2:51">
       <c r="AR31" s="6"/>
@@ -4236,10 +4236,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="73" customWidth="1"/>
-    <col min="3" max="3" width="79.625" style="73" customWidth="1"/>
-    <col min="4" max="4" width="17" style="73" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="73" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="46" customWidth="1"/>
+    <col min="3" max="3" width="79.625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="17" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="46" customWidth="1"/>
     <col min="6" max="6" width="1.625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -4279,146 +4279,146 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="71">
+      <c r="D5" s="44">
         <v>43449</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="45" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="93.75">
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="71">
+      <c r="D6" s="44">
         <v>43467</v>
       </c>
-      <c r="E6" s="72" t="s">
+      <c r="E6" s="45" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="69"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="72"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="69"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="72"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="69"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="72"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="69"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="72"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="69"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="72"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="69"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="72"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="72"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="72"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="72"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="45"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="72"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="72"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="72"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="72"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="45"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="72"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="72"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="72"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="72"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="45"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="72"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="72"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="45"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="72"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="72"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="72"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="45"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="72"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="45"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="72"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="45"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="72"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="45"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="72"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -4550,13 +4550,13 @@
       <c r="AH11" s="19"/>
     </row>
     <row r="12" spans="2:81" ht="19.5">
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="45"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="53"/>
       <c r="H12" s="25" t="s">
         <v>74</v>
       </c>
@@ -4880,69 +4880,69 @@
       </c>
     </row>
     <row r="9" spans="2:81">
-      <c r="C9" s="49">
+      <c r="C9" s="54">
         <f>ROW()-ROW($C$8)</f>
         <v>1</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49" t="s">
+      <c r="D9" s="54"/>
+      <c r="E9" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49" t="s">
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49" t="s">
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="T9" s="49"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="49"/>
-      <c r="Z9" s="49" t="s">
+      <c r="T9" s="54"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="54"/>
+      <c r="Z9" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="AA9" s="49"/>
-      <c r="AB9" s="49"/>
-      <c r="AC9" s="49"/>
-      <c r="AD9" s="49"/>
-      <c r="AE9" s="49"/>
-      <c r="AF9" s="49"/>
-      <c r="AG9" s="50" t="s">
+      <c r="AA9" s="54"/>
+      <c r="AB9" s="54"/>
+      <c r="AC9" s="54"/>
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="54"/>
+      <c r="AF9" s="54"/>
+      <c r="AG9" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="AH9" s="50"/>
-      <c r="AI9" s="51" t="s">
+      <c r="AH9" s="55"/>
+      <c r="AI9" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="AJ9" s="51"/>
-      <c r="AK9" s="51"/>
-      <c r="AL9" s="51"/>
-      <c r="AM9" s="51"/>
-      <c r="AN9" s="51"/>
-      <c r="AO9" s="51"/>
-      <c r="AP9" s="51"/>
-      <c r="AQ9" s="51"/>
-      <c r="AR9" s="51"/>
-      <c r="AS9" s="51"/>
-      <c r="AT9" s="51"/>
-      <c r="AU9" s="51"/>
-      <c r="AV9" s="51"/>
-      <c r="AW9" s="51"/>
-      <c r="AX9" s="51"/>
+      <c r="AJ9" s="56"/>
+      <c r="AK9" s="56"/>
+      <c r="AL9" s="56"/>
+      <c r="AM9" s="56"/>
+      <c r="AN9" s="56"/>
+      <c r="AO9" s="56"/>
+      <c r="AP9" s="56"/>
+      <c r="AQ9" s="56"/>
+      <c r="AR9" s="56"/>
+      <c r="AS9" s="56"/>
+      <c r="AT9" s="56"/>
+      <c r="AU9" s="56"/>
+      <c r="AV9" s="56"/>
+      <c r="AW9" s="56"/>
+      <c r="AX9" s="56"/>
       <c r="BX9" s="9" t="s">
         <v>31</v>
       </c>
@@ -4951,69 +4951,69 @@
       </c>
     </row>
     <row r="10" spans="2:81" ht="18.95" customHeight="1">
-      <c r="C10" s="49">
+      <c r="C10" s="54">
         <f>ROW()-ROW($C$8)</f>
         <v>2</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49" t="s">
+      <c r="D10" s="54"/>
+      <c r="E10" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49" t="s">
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49" t="s">
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="T10" s="49"/>
-      <c r="U10" s="49"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="49"/>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="49" t="s">
+      <c r="T10" s="54"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="54"/>
+      <c r="Y10" s="54"/>
+      <c r="Z10" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="AA10" s="49"/>
-      <c r="AB10" s="49"/>
-      <c r="AC10" s="49"/>
-      <c r="AD10" s="49"/>
-      <c r="AE10" s="49"/>
-      <c r="AF10" s="49"/>
-      <c r="AG10" s="50" t="s">
+      <c r="AA10" s="54"/>
+      <c r="AB10" s="54"/>
+      <c r="AC10" s="54"/>
+      <c r="AD10" s="54"/>
+      <c r="AE10" s="54"/>
+      <c r="AF10" s="54"/>
+      <c r="AG10" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="AH10" s="50"/>
-      <c r="AI10" s="51" t="s">
+      <c r="AH10" s="55"/>
+      <c r="AI10" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="AJ10" s="51"/>
-      <c r="AK10" s="51"/>
-      <c r="AL10" s="51"/>
-      <c r="AM10" s="51"/>
-      <c r="AN10" s="51"/>
-      <c r="AO10" s="51"/>
-      <c r="AP10" s="51"/>
-      <c r="AQ10" s="51"/>
-      <c r="AR10" s="51"/>
-      <c r="AS10" s="51"/>
-      <c r="AT10" s="51"/>
-      <c r="AU10" s="51"/>
-      <c r="AV10" s="51"/>
-      <c r="AW10" s="51"/>
-      <c r="AX10" s="51"/>
+      <c r="AJ10" s="56"/>
+      <c r="AK10" s="56"/>
+      <c r="AL10" s="56"/>
+      <c r="AM10" s="56"/>
+      <c r="AN10" s="56"/>
+      <c r="AO10" s="56"/>
+      <c r="AP10" s="56"/>
+      <c r="AQ10" s="56"/>
+      <c r="AR10" s="56"/>
+      <c r="AS10" s="56"/>
+      <c r="AT10" s="56"/>
+      <c r="AU10" s="56"/>
+      <c r="AV10" s="56"/>
+      <c r="AW10" s="56"/>
+      <c r="AX10" s="56"/>
       <c r="BX10" s="9" t="s">
         <v>44</v>
       </c>
@@ -5022,69 +5022,69 @@
       </c>
     </row>
     <row r="11" spans="2:81" ht="57" customHeight="1">
-      <c r="C11" s="49">
+      <c r="C11" s="54">
         <f t="shared" ref="C11:C12" si="0">ROW()-ROW($C$8)</f>
         <v>3</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49" t="s">
+      <c r="D11" s="54"/>
+      <c r="E11" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49" t="s">
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="49" t="s">
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="T11" s="49"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="49"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="49"/>
-      <c r="Z11" s="49" t="s">
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="54"/>
+      <c r="Y11" s="54"/>
+      <c r="Z11" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="AA11" s="49"/>
-      <c r="AB11" s="49"/>
-      <c r="AC11" s="49"/>
-      <c r="AD11" s="49"/>
-      <c r="AE11" s="49"/>
-      <c r="AF11" s="49"/>
-      <c r="AG11" s="50" t="s">
+      <c r="AA11" s="54"/>
+      <c r="AB11" s="54"/>
+      <c r="AC11" s="54"/>
+      <c r="AD11" s="54"/>
+      <c r="AE11" s="54"/>
+      <c r="AF11" s="54"/>
+      <c r="AG11" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="AH11" s="50"/>
-      <c r="AI11" s="51" t="s">
+      <c r="AH11" s="55"/>
+      <c r="AI11" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="AJ11" s="51"/>
-      <c r="AK11" s="51"/>
-      <c r="AL11" s="51"/>
-      <c r="AM11" s="51"/>
-      <c r="AN11" s="51"/>
-      <c r="AO11" s="51"/>
-      <c r="AP11" s="51"/>
-      <c r="AQ11" s="51"/>
-      <c r="AR11" s="51"/>
-      <c r="AS11" s="51"/>
-      <c r="AT11" s="51"/>
-      <c r="AU11" s="51"/>
-      <c r="AV11" s="51"/>
-      <c r="AW11" s="51"/>
-      <c r="AX11" s="51"/>
+      <c r="AJ11" s="56"/>
+      <c r="AK11" s="56"/>
+      <c r="AL11" s="56"/>
+      <c r="AM11" s="56"/>
+      <c r="AN11" s="56"/>
+      <c r="AO11" s="56"/>
+      <c r="AP11" s="56"/>
+      <c r="AQ11" s="56"/>
+      <c r="AR11" s="56"/>
+      <c r="AS11" s="56"/>
+      <c r="AT11" s="56"/>
+      <c r="AU11" s="56"/>
+      <c r="AV11" s="56"/>
+      <c r="AW11" s="56"/>
+      <c r="AX11" s="56"/>
       <c r="BX11" s="9" t="s">
         <v>45</v>
       </c>
@@ -5093,69 +5093,69 @@
       </c>
     </row>
     <row r="12" spans="2:81" ht="38.1" customHeight="1">
-      <c r="C12" s="46">
+      <c r="C12" s="62">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="46" t="s">
+      <c r="D12" s="63"/>
+      <c r="E12" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="46" t="s">
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="46" t="s">
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="46" t="s">
+      <c r="T12" s="64"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="64"/>
+      <c r="X12" s="64"/>
+      <c r="Y12" s="63"/>
+      <c r="Z12" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="AA12" s="48"/>
-      <c r="AB12" s="48"/>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="48"/>
-      <c r="AE12" s="48"/>
-      <c r="AF12" s="47"/>
-      <c r="AG12" s="52" t="s">
+      <c r="AA12" s="64"/>
+      <c r="AB12" s="64"/>
+      <c r="AC12" s="64"/>
+      <c r="AD12" s="64"/>
+      <c r="AE12" s="64"/>
+      <c r="AF12" s="63"/>
+      <c r="AG12" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="AH12" s="53"/>
-      <c r="AI12" s="54" t="s">
+      <c r="AH12" s="58"/>
+      <c r="AI12" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="AJ12" s="55"/>
-      <c r="AK12" s="55"/>
-      <c r="AL12" s="55"/>
-      <c r="AM12" s="55"/>
-      <c r="AN12" s="55"/>
-      <c r="AO12" s="55"/>
-      <c r="AP12" s="55"/>
-      <c r="AQ12" s="55"/>
-      <c r="AR12" s="55"/>
-      <c r="AS12" s="55"/>
-      <c r="AT12" s="55"/>
-      <c r="AU12" s="55"/>
-      <c r="AV12" s="55"/>
-      <c r="AW12" s="55"/>
-      <c r="AX12" s="56"/>
+      <c r="AJ12" s="60"/>
+      <c r="AK12" s="60"/>
+      <c r="AL12" s="60"/>
+      <c r="AM12" s="60"/>
+      <c r="AN12" s="60"/>
+      <c r="AO12" s="60"/>
+      <c r="AP12" s="60"/>
+      <c r="AQ12" s="60"/>
+      <c r="AR12" s="60"/>
+      <c r="AS12" s="60"/>
+      <c r="AT12" s="60"/>
+      <c r="AU12" s="60"/>
+      <c r="AV12" s="60"/>
+      <c r="AW12" s="60"/>
+      <c r="AX12" s="61"/>
       <c r="CA12" s="9" t="s">
         <v>34</v>
       </c>
@@ -5235,64 +5235,73 @@
       <c r="AX15" s="19"/>
     </row>
     <row r="16" spans="2:81">
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="49"/>
-      <c r="W16" s="49"/>
-      <c r="X16" s="49"/>
-      <c r="Y16" s="49"/>
-      <c r="Z16" s="49"/>
-      <c r="AA16" s="49"/>
-      <c r="AB16" s="49"/>
-      <c r="AC16" s="49"/>
-      <c r="AD16" s="49"/>
-      <c r="AE16" s="49"/>
-      <c r="AF16" s="49"/>
-      <c r="AG16" s="50"/>
-      <c r="AH16" s="50"/>
-      <c r="AI16" s="51"/>
-      <c r="AJ16" s="51"/>
-      <c r="AK16" s="51"/>
-      <c r="AL16" s="51"/>
-      <c r="AM16" s="51"/>
-      <c r="AN16" s="51"/>
-      <c r="AO16" s="51"/>
-      <c r="AP16" s="51"/>
-      <c r="AQ16" s="51"/>
-      <c r="AR16" s="51"/>
-      <c r="AS16" s="51"/>
-      <c r="AT16" s="51"/>
-      <c r="AU16" s="51"/>
-      <c r="AV16" s="51"/>
-      <c r="AW16" s="51"/>
-      <c r="AX16" s="51"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="54"/>
+      <c r="AA16" s="54"/>
+      <c r="AB16" s="54"/>
+      <c r="AC16" s="54"/>
+      <c r="AD16" s="54"/>
+      <c r="AE16" s="54"/>
+      <c r="AF16" s="54"/>
+      <c r="AG16" s="55"/>
+      <c r="AH16" s="55"/>
+      <c r="AI16" s="56"/>
+      <c r="AJ16" s="56"/>
+      <c r="AK16" s="56"/>
+      <c r="AL16" s="56"/>
+      <c r="AM16" s="56"/>
+      <c r="AN16" s="56"/>
+      <c r="AO16" s="56"/>
+      <c r="AP16" s="56"/>
+      <c r="AQ16" s="56"/>
+      <c r="AR16" s="56"/>
+      <c r="AS16" s="56"/>
+      <c r="AT16" s="56"/>
+      <c r="AU16" s="56"/>
+      <c r="AV16" s="56"/>
+      <c r="AW16" s="56"/>
+      <c r="AX16" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:K16"/>
-    <mergeCell ref="L16:R16"/>
-    <mergeCell ref="S16:Y16"/>
-    <mergeCell ref="Z16:AF16"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="S12:Y12"/>
+    <mergeCell ref="Z12:AF12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:K11"/>
+    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:K10"/>
+    <mergeCell ref="L10:R10"/>
     <mergeCell ref="AG16:AH16"/>
     <mergeCell ref="AI16:AX16"/>
     <mergeCell ref="S9:Y9"/>
@@ -5309,20 +5318,11 @@
     <mergeCell ref="Z10:AF10"/>
     <mergeCell ref="AG10:AH10"/>
     <mergeCell ref="AI10:AX10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:K9"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:K11"/>
-    <mergeCell ref="L11:R11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:K10"/>
-    <mergeCell ref="L10:R10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:K12"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="S12:Y12"/>
-    <mergeCell ref="Z12:AF12"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:K16"/>
+    <mergeCell ref="L16:R16"/>
+    <mergeCell ref="S16:Y16"/>
+    <mergeCell ref="Z16:AF16"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -5493,62 +5493,62 @@
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="36"/>
-      <c r="F9" s="63" t="s">
+      <c r="F9" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="63" t="s">
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="60" t="s">
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="U9" s="60"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="60"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="68" t="s">
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="AB9" s="68"/>
-      <c r="AC9" s="68"/>
-      <c r="AD9" s="68"/>
-      <c r="AE9" s="68"/>
-      <c r="AF9" s="68"/>
-      <c r="AG9" s="68"/>
-      <c r="AH9" s="61" t="s">
+      <c r="AB9" s="73"/>
+      <c r="AC9" s="73"/>
+      <c r="AD9" s="73"/>
+      <c r="AE9" s="73"/>
+      <c r="AF9" s="73"/>
+      <c r="AG9" s="73"/>
+      <c r="AH9" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="AI9" s="61"/>
-      <c r="AJ9" s="62"/>
-      <c r="AK9" s="62"/>
-      <c r="AL9" s="62"/>
-      <c r="AM9" s="62"/>
-      <c r="AN9" s="62"/>
-      <c r="AO9" s="62"/>
-      <c r="AP9" s="62"/>
-      <c r="AQ9" s="62"/>
-      <c r="AR9" s="62"/>
-      <c r="AS9" s="62"/>
-      <c r="AT9" s="62"/>
-      <c r="AU9" s="62"/>
-      <c r="AV9" s="62"/>
-      <c r="AW9" s="62"/>
-      <c r="AX9" s="62"/>
-      <c r="AY9" s="62"/>
+      <c r="AI9" s="68"/>
+      <c r="AJ9" s="69"/>
+      <c r="AK9" s="69"/>
+      <c r="AL9" s="69"/>
+      <c r="AM9" s="69"/>
+      <c r="AN9" s="69"/>
+      <c r="AO9" s="69"/>
+      <c r="AP9" s="69"/>
+      <c r="AQ9" s="69"/>
+      <c r="AR9" s="69"/>
+      <c r="AS9" s="69"/>
+      <c r="AT9" s="69"/>
+      <c r="AU9" s="69"/>
+      <c r="AV9" s="69"/>
+      <c r="AW9" s="69"/>
+      <c r="AX9" s="69"/>
+      <c r="AY9" s="69"/>
       <c r="BX9" s="9" t="s">
         <v>31</v>
       </c>
@@ -5562,62 +5562,62 @@
         <v>2</v>
       </c>
       <c r="E10" s="36"/>
-      <c r="F10" s="63" t="s">
+      <c r="F10" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="63" t="s">
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="60" t="s">
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="60"/>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="60" t="s">
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="60"/>
-      <c r="AD10" s="60"/>
-      <c r="AE10" s="60"/>
-      <c r="AF10" s="60"/>
-      <c r="AG10" s="60"/>
-      <c r="AH10" s="61" t="s">
+      <c r="AB10" s="72"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="72"/>
+      <c r="AE10" s="72"/>
+      <c r="AF10" s="72"/>
+      <c r="AG10" s="72"/>
+      <c r="AH10" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="AI10" s="61"/>
-      <c r="AJ10" s="57"/>
-      <c r="AK10" s="58"/>
-      <c r="AL10" s="58"/>
-      <c r="AM10" s="58"/>
-      <c r="AN10" s="58"/>
-      <c r="AO10" s="58"/>
-      <c r="AP10" s="58"/>
-      <c r="AQ10" s="58"/>
-      <c r="AR10" s="58"/>
-      <c r="AS10" s="58"/>
-      <c r="AT10" s="58"/>
-      <c r="AU10" s="58"/>
-      <c r="AV10" s="58"/>
-      <c r="AW10" s="58"/>
-      <c r="AX10" s="58"/>
-      <c r="AY10" s="59"/>
+      <c r="AI10" s="68"/>
+      <c r="AJ10" s="65"/>
+      <c r="AK10" s="66"/>
+      <c r="AL10" s="66"/>
+      <c r="AM10" s="66"/>
+      <c r="AN10" s="66"/>
+      <c r="AO10" s="66"/>
+      <c r="AP10" s="66"/>
+      <c r="AQ10" s="66"/>
+      <c r="AR10" s="66"/>
+      <c r="AS10" s="66"/>
+      <c r="AT10" s="66"/>
+      <c r="AU10" s="66"/>
+      <c r="AV10" s="66"/>
+      <c r="AW10" s="66"/>
+      <c r="AX10" s="66"/>
+      <c r="AY10" s="67"/>
       <c r="BX10" s="9" t="s">
         <v>44</v>
       </c>
@@ -5631,24 +5631,24 @@
         <v>3</v>
       </c>
       <c r="E11" s="26"/>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="65" t="s">
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="67"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="41"/>
       <c r="T11" s="31" t="s">
         <v>31</v>
       </c>
@@ -5667,26 +5667,26 @@
       <c r="AE11" s="32"/>
       <c r="AF11" s="32"/>
       <c r="AG11" s="33"/>
-      <c r="AH11" s="61" t="s">
+      <c r="AH11" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="AI11" s="61"/>
-      <c r="AJ11" s="57"/>
-      <c r="AK11" s="58"/>
-      <c r="AL11" s="58"/>
-      <c r="AM11" s="58"/>
-      <c r="AN11" s="58"/>
-      <c r="AO11" s="58"/>
-      <c r="AP11" s="58"/>
-      <c r="AQ11" s="58"/>
-      <c r="AR11" s="58"/>
-      <c r="AS11" s="58"/>
-      <c r="AT11" s="58"/>
-      <c r="AU11" s="58"/>
-      <c r="AV11" s="58"/>
-      <c r="AW11" s="58"/>
-      <c r="AX11" s="58"/>
-      <c r="AY11" s="59"/>
+      <c r="AI11" s="68"/>
+      <c r="AJ11" s="65"/>
+      <c r="AK11" s="66"/>
+      <c r="AL11" s="66"/>
+      <c r="AM11" s="66"/>
+      <c r="AN11" s="66"/>
+      <c r="AO11" s="66"/>
+      <c r="AP11" s="66"/>
+      <c r="AQ11" s="66"/>
+      <c r="AR11" s="66"/>
+      <c r="AS11" s="66"/>
+      <c r="AT11" s="66"/>
+      <c r="AU11" s="66"/>
+      <c r="AV11" s="66"/>
+      <c r="AW11" s="66"/>
+      <c r="AX11" s="66"/>
+      <c r="AY11" s="67"/>
       <c r="BX11" s="9" t="s">
         <v>45</v>
       </c>

--- a/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Ref002_トークテーマカテゴリ一覧取得.xlsx
+++ b/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Ref002_トークテーマカテゴリ一覧取得.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9296B93B-0C74-4B75-9AC7-41621C1D5E4F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E375C7-40DB-4EFB-BAD8-51CB55FCC8AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="465" windowWidth="38400" windowHeight="21135" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -44,6 +44,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -52,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="85">
   <si>
     <t>Confidential</t>
     <phoneticPr fontId="6"/>
@@ -442,18 +447,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>sortKey</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ソートキー</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>SortKeyType</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>sortType</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -469,39 +462,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>asc:昇順
-desc:降順</t>
-    <rPh sb="4" eb="6">
-      <t>ショウジュン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>コウジュン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>maxCount</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>最大取得数</t>
-    <rPh sb="0" eb="2">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>Number</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>BigDecimal</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -514,44 +475,6 @@
     </rPh>
     <rPh sb="4" eb="7">
       <t>サイダイチ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">rank:総合ランキング順
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TODO:将来的にユーザーがよく使用するジャンル順や一定期間の中での人気順も検討する</t>
-    </r>
-    <rPh sb="5" eb="7">
-      <t>ソウゴウ</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>ショウライテキニ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ジュンヤ</t>
-    </rPh>
-    <rPh sb="40" eb="44">
-      <t>イッテイキカンノ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ナカデノ</t>
-    </rPh>
-    <rPh sb="48" eb="51">
-      <t>ニンキジュン</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ケントウスル</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -637,6 +560,97 @@
     </rPh>
     <rPh sb="69" eb="71">
       <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ページ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>取得数</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>使用回数でのソート条件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+asc:昇順
+desc:降順</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショウジュン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウジュン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0.0.3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リクエスト
+・pageとsizeを項目に追加
+・ソート順の備考を追記</t>
+    <rPh sb="17" eb="19">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ツイキ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -944,7 +958,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1097,6 +1111,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1122,15 +1145,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1156,6 +1170,15 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4182,7 +4205,7 @@
     <row r="27" spans="2:51">
       <c r="AO27" s="47">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(改訂日),COLUMN(改訂日),4,1),1)&amp;COUNTA(改訂日)+4)</f>
-        <v>43467</v>
+        <v>43604</v>
       </c>
       <c r="AP27" s="48"/>
       <c r="AQ27" s="48"/>
@@ -4198,7 +4221,7 @@
     <row r="28" spans="2:51">
       <c r="AR28" s="49" t="str">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(版),COLUMN(版),4,1),1)&amp;COUNTA(版)+4)</f>
-        <v>0.0.2</v>
+        <v>0.0.3</v>
       </c>
       <c r="AS28" s="49"/>
       <c r="AT28" s="49"/>
@@ -4220,7 +4243,7 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="75" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="76" fitToWidth="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4294,10 +4317,10 @@
     </row>
     <row r="6" spans="2:5" ht="93.75">
       <c r="B6" s="42" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D6" s="44">
         <v>43467</v>
@@ -4306,11 +4329,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="42"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="45"/>
+    <row r="7" spans="2:5" ht="56.25">
+      <c r="B7" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="44">
+        <v>43604</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="42"/>
@@ -4423,7 +4454,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="87" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="83" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4487,7 +4518,7 @@
         <v>43467</v>
       </c>
       <c r="CC3" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:81" ht="18" customHeight="1"/>
@@ -4498,7 +4529,7 @@
     </row>
     <row r="7" spans="2:81">
       <c r="C7" s="9" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:81">
@@ -4558,7 +4589,7 @@
       <c r="F12" s="52"/>
       <c r="G12" s="53"/>
       <c r="H12" s="25" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
@@ -4728,7 +4759,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -4880,69 +4911,69 @@
       </c>
     </row>
     <row r="9" spans="2:81">
-      <c r="C9" s="54">
+      <c r="C9" s="57">
         <f>ROW()-ROW($C$8)</f>
         <v>1</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="54"/>
-      <c r="AC9" s="54"/>
-      <c r="AD9" s="54"/>
-      <c r="AE9" s="54"/>
-      <c r="AF9" s="54"/>
-      <c r="AG9" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH9" s="55"/>
-      <c r="AI9" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ9" s="56"/>
-      <c r="AK9" s="56"/>
-      <c r="AL9" s="56"/>
-      <c r="AM9" s="56"/>
-      <c r="AN9" s="56"/>
-      <c r="AO9" s="56"/>
-      <c r="AP9" s="56"/>
-      <c r="AQ9" s="56"/>
-      <c r="AR9" s="56"/>
-      <c r="AS9" s="56"/>
-      <c r="AT9" s="56"/>
-      <c r="AU9" s="56"/>
-      <c r="AV9" s="56"/>
-      <c r="AW9" s="56"/>
-      <c r="AX9" s="56"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="T9" s="74"/>
+      <c r="U9" s="74"/>
+      <c r="V9" s="74"/>
+      <c r="W9" s="74"/>
+      <c r="X9" s="74"/>
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA9" s="74"/>
+      <c r="AB9" s="74"/>
+      <c r="AC9" s="74"/>
+      <c r="AD9" s="74"/>
+      <c r="AE9" s="74"/>
+      <c r="AF9" s="74"/>
+      <c r="AG9" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH9" s="75"/>
+      <c r="AI9" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ9" s="76"/>
+      <c r="AK9" s="76"/>
+      <c r="AL9" s="76"/>
+      <c r="AM9" s="76"/>
+      <c r="AN9" s="76"/>
+      <c r="AO9" s="76"/>
+      <c r="AP9" s="76"/>
+      <c r="AQ9" s="76"/>
+      <c r="AR9" s="76"/>
+      <c r="AS9" s="76"/>
+      <c r="AT9" s="76"/>
+      <c r="AU9" s="76"/>
+      <c r="AV9" s="76"/>
+      <c r="AW9" s="76"/>
+      <c r="AX9" s="76"/>
       <c r="BX9" s="9" t="s">
         <v>31</v>
       </c>
@@ -4951,69 +4982,69 @@
       </c>
     </row>
     <row r="10" spans="2:81" ht="18.95" customHeight="1">
-      <c r="C10" s="54">
+      <c r="C10" s="57">
         <f>ROW()-ROW($C$8)</f>
         <v>2</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="T10" s="54"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="54"/>
-      <c r="W10" s="54"/>
-      <c r="X10" s="54"/>
-      <c r="Y10" s="54"/>
-      <c r="Z10" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA10" s="54"/>
-      <c r="AB10" s="54"/>
-      <c r="AC10" s="54"/>
-      <c r="AD10" s="54"/>
-      <c r="AE10" s="54"/>
-      <c r="AF10" s="54"/>
-      <c r="AG10" s="55" t="s">
+      <c r="D10" s="57"/>
+      <c r="E10" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="T10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="74"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="74"/>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="74"/>
+      <c r="AF10" s="74"/>
+      <c r="AG10" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="AH10" s="55"/>
-      <c r="AI10" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ10" s="56"/>
-      <c r="AK10" s="56"/>
-      <c r="AL10" s="56"/>
-      <c r="AM10" s="56"/>
-      <c r="AN10" s="56"/>
-      <c r="AO10" s="56"/>
-      <c r="AP10" s="56"/>
-      <c r="AQ10" s="56"/>
-      <c r="AR10" s="56"/>
-      <c r="AS10" s="56"/>
-      <c r="AT10" s="56"/>
-      <c r="AU10" s="56"/>
-      <c r="AV10" s="56"/>
-      <c r="AW10" s="56"/>
-      <c r="AX10" s="56"/>
+      <c r="AH10" s="75"/>
+      <c r="AI10" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ10" s="76"/>
+      <c r="AK10" s="76"/>
+      <c r="AL10" s="76"/>
+      <c r="AM10" s="76"/>
+      <c r="AN10" s="76"/>
+      <c r="AO10" s="76"/>
+      <c r="AP10" s="76"/>
+      <c r="AQ10" s="76"/>
+      <c r="AR10" s="76"/>
+      <c r="AS10" s="76"/>
+      <c r="AT10" s="76"/>
+      <c r="AU10" s="76"/>
+      <c r="AV10" s="76"/>
+      <c r="AW10" s="76"/>
+      <c r="AX10" s="76"/>
       <c r="BX10" s="9" t="s">
         <v>44</v>
       </c>
@@ -5022,69 +5053,69 @@
       </c>
     </row>
     <row r="11" spans="2:81" ht="57" customHeight="1">
-      <c r="C11" s="54">
+      <c r="C11" s="57">
         <f t="shared" ref="C11:C12" si="0">ROW()-ROW($C$8)</f>
         <v>3</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="54"/>
-      <c r="X11" s="54"/>
-      <c r="Y11" s="54"/>
-      <c r="Z11" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA11" s="54"/>
-      <c r="AB11" s="54"/>
-      <c r="AC11" s="54"/>
-      <c r="AD11" s="54"/>
-      <c r="AE11" s="54"/>
-      <c r="AF11" s="54"/>
-      <c r="AG11" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH11" s="55"/>
-      <c r="AI11" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ11" s="56"/>
-      <c r="AK11" s="56"/>
-      <c r="AL11" s="56"/>
-      <c r="AM11" s="56"/>
-      <c r="AN11" s="56"/>
-      <c r="AO11" s="56"/>
-      <c r="AP11" s="56"/>
-      <c r="AQ11" s="56"/>
-      <c r="AR11" s="56"/>
-      <c r="AS11" s="56"/>
-      <c r="AT11" s="56"/>
-      <c r="AU11" s="56"/>
-      <c r="AV11" s="56"/>
-      <c r="AW11" s="56"/>
-      <c r="AX11" s="56"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="57"/>
+      <c r="AC11" s="57"/>
+      <c r="AD11" s="57"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="57"/>
+      <c r="AG11" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH11" s="58"/>
+      <c r="AI11" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ11" s="59"/>
+      <c r="AK11" s="59"/>
+      <c r="AL11" s="59"/>
+      <c r="AM11" s="59"/>
+      <c r="AN11" s="59"/>
+      <c r="AO11" s="59"/>
+      <c r="AP11" s="59"/>
+      <c r="AQ11" s="59"/>
+      <c r="AR11" s="59"/>
+      <c r="AS11" s="59"/>
+      <c r="AT11" s="59"/>
+      <c r="AU11" s="59"/>
+      <c r="AV11" s="59"/>
+      <c r="AW11" s="59"/>
+      <c r="AX11" s="59"/>
       <c r="BX11" s="9" t="s">
         <v>45</v>
       </c>
@@ -5092,70 +5123,70 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:81" ht="38.1" customHeight="1">
-      <c r="C12" s="62">
+    <row r="12" spans="2:81" ht="57" customHeight="1">
+      <c r="C12" s="54">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="62" t="s">
+      <c r="D12" s="55"/>
+      <c r="E12" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="T12" s="64"/>
-      <c r="U12" s="64"/>
-      <c r="V12" s="64"/>
-      <c r="W12" s="64"/>
-      <c r="X12" s="64"/>
-      <c r="Y12" s="63"/>
-      <c r="Z12" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA12" s="64"/>
-      <c r="AB12" s="64"/>
-      <c r="AC12" s="64"/>
-      <c r="AD12" s="64"/>
-      <c r="AE12" s="64"/>
-      <c r="AF12" s="63"/>
-      <c r="AG12" s="57" t="s">
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="55"/>
+      <c r="Z12" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="56"/>
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="56"/>
+      <c r="AF12" s="55"/>
+      <c r="AG12" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="AH12" s="58"/>
-      <c r="AI12" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ12" s="60"/>
-      <c r="AK12" s="60"/>
-      <c r="AL12" s="60"/>
-      <c r="AM12" s="60"/>
-      <c r="AN12" s="60"/>
-      <c r="AO12" s="60"/>
-      <c r="AP12" s="60"/>
-      <c r="AQ12" s="60"/>
-      <c r="AR12" s="60"/>
-      <c r="AS12" s="60"/>
-      <c r="AT12" s="60"/>
-      <c r="AU12" s="60"/>
-      <c r="AV12" s="60"/>
-      <c r="AW12" s="60"/>
-      <c r="AX12" s="61"/>
+      <c r="AH12" s="61"/>
+      <c r="AI12" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ12" s="63"/>
+      <c r="AK12" s="63"/>
+      <c r="AL12" s="63"/>
+      <c r="AM12" s="63"/>
+      <c r="AN12" s="63"/>
+      <c r="AO12" s="63"/>
+      <c r="AP12" s="63"/>
+      <c r="AQ12" s="63"/>
+      <c r="AR12" s="63"/>
+      <c r="AS12" s="63"/>
+      <c r="AT12" s="63"/>
+      <c r="AU12" s="63"/>
+      <c r="AV12" s="63"/>
+      <c r="AW12" s="63"/>
+      <c r="AX12" s="64"/>
       <c r="CA12" s="9" t="s">
         <v>34</v>
       </c>
@@ -5235,73 +5266,64 @@
       <c r="AX15" s="19"/>
     </row>
     <row r="16" spans="2:81">
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="54"/>
-      <c r="X16" s="54"/>
-      <c r="Y16" s="54"/>
-      <c r="Z16" s="54"/>
-      <c r="AA16" s="54"/>
-      <c r="AB16" s="54"/>
-      <c r="AC16" s="54"/>
-      <c r="AD16" s="54"/>
-      <c r="AE16" s="54"/>
-      <c r="AF16" s="54"/>
-      <c r="AG16" s="55"/>
-      <c r="AH16" s="55"/>
-      <c r="AI16" s="56"/>
-      <c r="AJ16" s="56"/>
-      <c r="AK16" s="56"/>
-      <c r="AL16" s="56"/>
-      <c r="AM16" s="56"/>
-      <c r="AN16" s="56"/>
-      <c r="AO16" s="56"/>
-      <c r="AP16" s="56"/>
-      <c r="AQ16" s="56"/>
-      <c r="AR16" s="56"/>
-      <c r="AS16" s="56"/>
-      <c r="AT16" s="56"/>
-      <c r="AU16" s="56"/>
-      <c r="AV16" s="56"/>
-      <c r="AW16" s="56"/>
-      <c r="AX16" s="56"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="57"/>
+      <c r="AB16" s="57"/>
+      <c r="AC16" s="57"/>
+      <c r="AD16" s="57"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="57"/>
+      <c r="AG16" s="58"/>
+      <c r="AH16" s="58"/>
+      <c r="AI16" s="59"/>
+      <c r="AJ16" s="59"/>
+      <c r="AK16" s="59"/>
+      <c r="AL16" s="59"/>
+      <c r="AM16" s="59"/>
+      <c r="AN16" s="59"/>
+      <c r="AO16" s="59"/>
+      <c r="AP16" s="59"/>
+      <c r="AQ16" s="59"/>
+      <c r="AR16" s="59"/>
+      <c r="AS16" s="59"/>
+      <c r="AT16" s="59"/>
+      <c r="AU16" s="59"/>
+      <c r="AV16" s="59"/>
+      <c r="AW16" s="59"/>
+      <c r="AX16" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:K12"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="S12:Y12"/>
-    <mergeCell ref="Z12:AF12"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:K9"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:K11"/>
-    <mergeCell ref="L11:R11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:K10"/>
-    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:K16"/>
+    <mergeCell ref="L16:R16"/>
+    <mergeCell ref="S16:Y16"/>
+    <mergeCell ref="Z16:AF16"/>
     <mergeCell ref="AG16:AH16"/>
     <mergeCell ref="AI16:AX16"/>
     <mergeCell ref="S9:Y9"/>
@@ -5318,11 +5340,20 @@
     <mergeCell ref="Z10:AF10"/>
     <mergeCell ref="AG10:AH10"/>
     <mergeCell ref="AI10:AX10"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:K16"/>
-    <mergeCell ref="L16:R16"/>
-    <mergeCell ref="S16:Y16"/>
-    <mergeCell ref="Z16:AF16"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:K11"/>
+    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:K10"/>
+    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="S12:Y12"/>
+    <mergeCell ref="Z12:AF12"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -5331,7 +5362,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -5396,7 +5427,7 @@
         <v>43467</v>
       </c>
       <c r="CC3" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:81" ht="18" customHeight="1"/>
@@ -5494,7 +5525,7 @@
       <c r="D9" s="35"/>
       <c r="E9" s="36"/>
       <c r="F9" s="70" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G9" s="70"/>
       <c r="H9" s="70"/>
@@ -5503,7 +5534,7 @@
       <c r="K9" s="70"/>
       <c r="L9" s="71"/>
       <c r="M9" s="70" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="N9" s="70"/>
       <c r="O9" s="70"/>
@@ -5521,7 +5552,7 @@
       <c r="Y9" s="72"/>
       <c r="Z9" s="72"/>
       <c r="AA9" s="73" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AB9" s="73"/>
       <c r="AC9" s="73"/>
@@ -5563,7 +5594,7 @@
       </c>
       <c r="E10" s="36"/>
       <c r="F10" s="70" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G10" s="70"/>
       <c r="H10" s="70"/>
@@ -5572,7 +5603,7 @@
       <c r="K10" s="70"/>
       <c r="L10" s="71"/>
       <c r="M10" s="70" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="N10" s="70"/>
       <c r="O10" s="70"/>
@@ -5590,7 +5621,7 @@
       <c r="Y10" s="72"/>
       <c r="Z10" s="72"/>
       <c r="AA10" s="72" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="AB10" s="72"/>
       <c r="AC10" s="72"/>
@@ -5632,7 +5663,7 @@
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="40" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G11" s="40"/>
       <c r="H11" s="40"/>
@@ -5641,7 +5672,7 @@
       <c r="K11" s="40"/>
       <c r="L11" s="41"/>
       <c r="M11" s="39" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="N11" s="40"/>
       <c r="O11" s="40"/>
@@ -5729,7 +5760,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>